--- a/db_hospital.xlsx
+++ b/db_hospital.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-j12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC2EEF0-350C-4256-ABB9-85C3E2CA4443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2B03EA-B54F-49F3-BFF5-FF37CFA388CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{96C65B63-FA5D-429C-A1F3-94D26BA5AEC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{96C65B63-FA5D-429C-A1F3-94D26BA5AEC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hospital" sheetId="1" r:id="rId1"/>
+    <sheet name="estadisticas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
   <si>
     <t>PACIENTE</t>
   </si>
@@ -220,6 +221,33 @@
   </si>
   <si>
     <t>GIOVANNY</t>
+  </si>
+  <si>
+    <t>CONTAR</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>RANGO</t>
+  </si>
+  <si>
+    <t>A1:K35</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>E1</t>
   </si>
 </sst>
 </file>
@@ -578,11 +606,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363A3A89-618A-42AA-9659-E5C231C362B4}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1810,7 +1850,127 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{427C2D7E-0C27-4850-BE7B-03732A034458}">
+      <formula1>0</formula1>
+      <formula2>125</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{68DE5A47-6E7D-4191-8B0A-486F24F73547}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4CD760-6740-4E33-90A6-9BF78E4DF061}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <f>DCOUNT(Hospital!A1:K35,Hospital!E1,B1:L2)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{CDC7BA58-5C7D-4CF7-95AF-A46057055805}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{33D7395F-18FC-4A34-A10D-D18B1C1FB0E0}">
+      <formula1>0</formula1>
+      <formula2>125</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db_hospital.xlsx
+++ b/db_hospital.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-j12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2B03EA-B54F-49F3-BFF5-FF37CFA388CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89519044-903E-4ADE-8B96-0BB2D1EA0D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{96C65B63-FA5D-429C-A1F3-94D26BA5AEC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{96C65B63-FA5D-429C-A1F3-94D26BA5AEC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hospital" sheetId="1" r:id="rId1"/>
-    <sheet name="estadisticas" sheetId="2" r:id="rId2"/>
+    <sheet name="Consultas" sheetId="1" r:id="rId1"/>
+    <sheet name="Sintomas" sheetId="3" r:id="rId2"/>
+    <sheet name="EPS" sheetId="4" r:id="rId3"/>
+    <sheet name="Diag." sheetId="5" r:id="rId4"/>
+    <sheet name="estadisticas" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="80">
   <si>
     <t>PACIENTE</t>
   </si>
@@ -241,23 +244,51 @@
     <t>RANGO</t>
   </si>
   <si>
-    <t>A1:K35</t>
-  </si>
-  <si>
     <t>Consulta</t>
   </si>
   <si>
     <t>E1</t>
+  </si>
+  <si>
+    <t>Ref. Columna</t>
+  </si>
+  <si>
+    <t>Ref. Rango Tabla</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>A:K</t>
+  </si>
+  <si>
+    <t>consultas[#todo]</t>
+  </si>
+  <si>
+    <t>consultas[[#encabezados];[valor consulta]]</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>cant</t>
+  </si>
+  <si>
+    <t>APENDICITIS</t>
+  </si>
+  <si>
+    <t>N° SALA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,16 +296,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -282,19 +340,717 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -305,6 +1061,3041 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sintomas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.4749999999999991E-2"/>
+          <c:y val="1.3888888888888888E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sintomas!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.26666666666666666"/>
+                  <c:y val="-0.19907407407407407"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.27500000000000002"/>
+                  <c:y val="0.18518518518518517"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10555555555555561"/>
+                  <c:y val="0.15277777777777779"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27777777777777779"/>
+                  <c:y val="3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18055555555555558"/>
+                  <c:y val="-0.2638888888888889"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sintomas!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>DOLOR DE CABEZA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAREOS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TOS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DIARREA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FIEBRE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>APENDICITIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sintomas!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BBE-412C-8E87-2081C4ECA094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sintomas!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11111111111111101"/>
+                  <c:y val="-0.23148148148148148"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.25277777777777777"/>
+                  <c:y val="8.3333333333333329E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15833333333333333"/>
+                  <c:y val="0.13425925925925927"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23333333333333334"/>
+                  <c:y val="4.6296296296296294E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24166666666666667"/>
+                  <c:y val="-9.7222222222222224E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sintomas!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>DOLOR DE CABEZA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAREOS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TOS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DIARREA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FIEBRE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>APENDICITIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sintomas!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4BBE-412C-8E87-2081C4ECA094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sintomas!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-4BBE-412C-8E87-2081C4ECA094}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.22777777777777777"/>
+                  <c:y val="5.0925925925925923E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1861111111111112"/>
+                  <c:y val="0.21759259259259242"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6666666666666666E-2"/>
+                  <c:y val="0.10831547098279365"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21964457567804024"/>
+                  <c:y val="1.3888888888888805E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.20370370370370369"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-4BBE-412C-8E87-2081C4ECA094}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sintomas!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>DOLOR DE CABEZA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAREOS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TOS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DIARREA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FIEBRE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>APENDICITIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sintomas!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4BBE-412C-8E87-2081C4ECA094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Estadisticas EPS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EPS!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPS!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>COOMEVA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SALUDTOTAL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NUEVA EPS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SALUDCCOOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EPS!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7161-4EFA-8876-F1FCECCEDC61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EPS!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPS!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>COOMEVA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SALUDTOTAL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NUEVA EPS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SALUDCCOOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EPS!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7161-4EFA-8876-F1FCECCEDC61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EPS!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>EPS!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>COOMEVA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SALUDTOTAL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NUEVA EPS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SALUDCCOOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EPS!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7161-4EFA-8876-F1FCECCEDC61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="829090112"/>
+        <c:axId val="829088032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="829090112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829088032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="829088032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829090112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>735</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28F0C1D-5CB8-4617-A7C8-FD4B5EF88DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>985</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>985</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0C26C0-3BF7-40F3-A574-C75B057AB2C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E441EFC-D1E8-4F6E-9C94-A3F8C6776698}" name="consultas" displayName="consultas" ref="A1:K40">
+  <autoFilter ref="A1:K40" xr:uid="{6E441EFC-D1E8-4F6E-9C94-A3F8C6776698}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{EC82EA36-EB1F-49DB-A78A-F50AC33EE756}" name="PACIENTE" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{C8C2C046-88FD-4CEF-BF85-DB92A181E0F5}" name="FECHA ENTRADA" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{ADD20D36-BD44-44DC-AD63-8C9CB8E591A8}" name="SEXO"/>
+    <tableColumn id="4" xr3:uid="{10727B86-F67A-4CA2-89E7-579B6DE2B962}" name="EDAD"/>
+    <tableColumn id="5" xr3:uid="{188E4BC3-9DE6-4BEA-BA07-B0330A9C93BC}" name="VALOR CONSULTA" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{CE3245D0-4345-44E2-90AF-6B2883BC986D}" name="SINTOMAS"/>
+    <tableColumn id="7" xr3:uid="{3805ABBF-FA67-4E8E-8032-9FCB8BF93218}" name="EPS"/>
+    <tableColumn id="8" xr3:uid="{5FF9DCF8-C812-4517-9BEA-20F822FA3431}" name="DIAGNOSTICO"/>
+    <tableColumn id="9" xr3:uid="{6A64243D-9D68-40FF-BFC4-64EC77D0EC33}" name="SALA"/>
+    <tableColumn id="10" xr3:uid="{7B5E8CF0-A178-4CD4-BE64-1CB1FE201BCC}" name="MEDICO"/>
+    <tableColumn id="11" xr3:uid="{8271452B-653D-4D1E-BA71-3175514B5DBC}" name="Nº SALA" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C8448426-7384-4C17-9436-DBD879A4F2CB}" name="sala_nombres" displayName="sala_nombres" ref="M1:P5" totalsRowCount="1">
+  <autoFilter ref="M1:P4" xr:uid="{C8448426-7384-4C17-9436-DBD879A4F2CB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9A4E74E3-608A-4BEA-BED4-7AD6FA092E4D}" name="SALA" totalsRowLabel="Total"/>
+    <tableColumn id="3" xr3:uid="{FACAF06C-F4FD-4799-A2CB-6A45AA4B1799}" name="M" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{93C25959-9B38-45C7-B858-162B68C50D9F}" name="F" totalsRowFunction="sum"/>
+    <tableColumn id="2" xr3:uid="{E14355DF-19BC-445F-95E0-15BA64BA38C3}" name="Total" totalsRowFunction="sum">
+      <calculatedColumnFormula>COUNTIF(consultas[SALA],M2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{944FFD16-F8E9-4AB3-BC8B-54439875215D}" name="sala_numeros" displayName="sala_numeros" ref="M7:P14" totalsRowCount="1">
+  <autoFilter ref="M7:P13" xr:uid="{944FFD16-F8E9-4AB3-BC8B-54439875215D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F02196C5-358E-43B0-AC91-5CFCD0BD54B5}" name="N° SALA" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{3287619F-FF33-4119-9C3A-2BA196659CDB}" name="M" totalsRowFunction="sum" dataDxfId="7">
+      <calculatedColumnFormula>COUNTIFS(consultas[Nº SALA],$M8,consultas[SEXO],N$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{71C9643A-8015-49E5-93EF-F0993CCE7A0B}" name="F" totalsRowFunction="sum" dataDxfId="6">
+      <calculatedColumnFormula>COUNTIFS(consultas[Nº SALA],$M8,consultas[SEXO],O$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C61461CC-35A1-49D4-B2DB-3BDB6B07A3C3}" name="Total" totalsRowFunction="sum" dataDxfId="5">
+      <calculatedColumnFormula>COUNTIF(consultas[Nº SALA],M8)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1BD8535B-95FE-40ED-80F1-F867E2BB12CE}" name="sintomas" displayName="sintomas" ref="A1:D8" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:D7" xr:uid="{1BD8535B-95FE-40ED-80F1-F867E2BB12CE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FE59E412-D13D-4FFB-AC98-6B40A0D50C7E}" name="nombre" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B40697AB-D92C-41F4-93FB-88A3DC66EE2C}" name="M" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="13">
+      <calculatedColumnFormula>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[M]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E2CC96D7-2DA9-4C89-8E37-CA0AA4C1F54B}" name="F" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="12">
+      <calculatedColumnFormula>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[F]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{7C946B64-55CF-46E8-83D7-95E10D913968}" name="cant" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="11">
+      <calculatedColumnFormula>COUNTIF(consultas[SINTOMAS],A2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7688E62D-3E39-41D3-9434-2A47DCDDBFA5}" name="eps" displayName="eps" ref="A1:D6" totalsRowCount="1">
+  <autoFilter ref="A1:D5" xr:uid="{7688E62D-3E39-41D3-9434-2A47DCDDBFA5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B0AA9F69-BE41-42E4-97D5-421616661BC9}" name="nombre" totalsRowLabel="Total"/>
+    <tableColumn id="4" xr3:uid="{C3316FC6-E38D-47BD-967B-920AC817EA02}" name="M" totalsRowFunction="sum" dataDxfId="9">
+      <calculatedColumnFormula>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[M]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{74F84E4D-37F2-4F2C-A6A4-4D7382A164F4}" name="F" totalsRowFunction="sum" dataDxfId="8">
+      <calculatedColumnFormula>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[F]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{58C7F580-DE5E-47E5-A261-6E465FD82430}" name="cant" totalsRowFunction="sum" dataDxfId="10">
+      <calculatedColumnFormula>COUNTIF(consultas[EPS],eps[[#This Row],[nombre]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{86F2E751-2B35-422B-8E7D-B1FF30734C49}" name="diagnostico" displayName="diagnostico" ref="A1:D5" totalsRowCount="1">
+  <autoFilter ref="A1:D4" xr:uid="{86F2E751-2B35-422B-8E7D-B1FF30734C49}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8096F61C-2C59-4592-A42F-61BF15553F5D}" name="nombre" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{69922583-5ADD-4609-8A13-F309F9BF2617}" name="M" totalsRowFunction="sum" dataDxfId="2">
+      <calculatedColumnFormula>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[M]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2E9574B2-FEDF-4473-B1B2-5F7BED59E396}" name="F" totalsRowFunction="sum" dataDxfId="1">
+      <calculatedColumnFormula>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[F]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{16E9E940-42D4-48C2-B17E-0511625B0478}" name="cant" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{981CC706-1D39-4161-B333-B24C4E334487}" name="condiciones" displayName="condiciones" ref="A1:K2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" tableBorderDxfId="34">
+  <autoFilter ref="A1:K2" xr:uid="{981CC706-1D39-4161-B333-B24C4E334487}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{01AE878A-DBC7-4557-BBD6-D5D55A909672}" name="PACIENTE" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{C2EADEEC-4AEC-4D0B-A67B-BCF56FC6F7E6}" name="FECHA ENTRADA" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{FE98B3F5-EF62-48B9-8AAC-07870ABE0568}" name="SEXO" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{ED80729D-94D8-4AA7-89E5-C7F75FBD9D31}" name="EDAD" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{D21B0948-2F5B-4882-9A85-6079FA28F7D3}" name="VALOR CONSULTA" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{F07DB86B-840F-4A91-AF78-3EBE9FF94938}" name="SINTOMAS" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{8B97ECAE-C44A-4352-8245-F057FD32A5E1}" name="EPS" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{90E3307A-9018-4FE7-B90D-BFFDC7063DA2}" name="DIAGNOSTICO" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{3DB5A69B-1E06-4302-954C-896C7EB33553}" name="SALA" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{68459C48-FD1B-4091-BA0D-9F12ACE78A94}" name="MEDICO" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{E2F6BA46-1715-4664-B357-3382762F6E79}" name="Nº SALA" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,27 +4395,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363A3A89-618A-42AA-9659-E5C231C362B4}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,8 +4452,20 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -693,8 +4499,23 @@
       <c r="K2">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <f>COUNTIFS(consultas[SALA],$M2,consultas[SEXO],N$1)</f>
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIFS(consultas[SALA],$M2,consultas[SEXO],O$1)</f>
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIF(consultas[SALA],M2)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -728,8 +4549,23 @@
       <c r="K3">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <f>COUNTIFS(consultas[SALA],$M3,consultas[SEXO],N$1)</f>
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <f>COUNTIFS(consultas[SALA],$M3,consultas[SEXO],O$1)</f>
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <f>COUNTIF(consultas[SALA],M3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -763,8 +4599,23 @@
       <c r="K4">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIFS(consultas[SALA],$M4,consultas[SEXO],N$1)</f>
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIFS(consultas[SALA],$M4,consultas[SEXO],O$1)</f>
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <f>COUNTIF(consultas[SALA],M4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -798,8 +4649,23 @@
       <c r="K5">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5">
+        <f>SUBTOTAL(109,sala_nombres[M])</f>
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <f>SUBTOTAL(109,sala_nombres[F])</f>
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <f>SUBTOTAL(109,sala_nombres[Total])</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -834,7 +4700,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -868,8 +4734,20 @@
       <c r="K7">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -903,8 +4781,23 @@
       <c r="K8">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>101</v>
+      </c>
+      <c r="N8">
+        <f>COUNTIFS(consultas[Nº SALA],$M8,consultas[SEXO],N$1)</f>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f>COUNTIFS(consultas[Nº SALA],$M8,consultas[SEXO],O$1)</f>
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIF(consultas[Nº SALA],M8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -938,8 +4831,23 @@
       <c r="K9">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>102</v>
+      </c>
+      <c r="N9">
+        <f>COUNTIFS(consultas[Nº SALA],$M9,consultas[SEXO],N$1)</f>
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <f>COUNTIFS(consultas[Nº SALA],$M9,consultas[SEXO],O$1)</f>
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <f>COUNTIF(consultas[Nº SALA],M9)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -973,8 +4881,23 @@
       <c r="K10">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>103</v>
+      </c>
+      <c r="N10">
+        <f>COUNTIFS(consultas[Nº SALA],$M10,consultas[SEXO],N$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>COUNTIFS(consultas[Nº SALA],$M10,consultas[SEXO],O$1)</f>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f>COUNTIF(consultas[Nº SALA],M10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1008,8 +4931,23 @@
       <c r="K11">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>104</v>
+      </c>
+      <c r="N11">
+        <f>COUNTIFS(consultas[Nº SALA],$M11,consultas[SEXO],N$1)</f>
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <f>COUNTIFS(consultas[Nº SALA],$M11,consultas[SEXO],O$1)</f>
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <f>COUNTIF(consultas[Nº SALA],M11)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1043,8 +4981,23 @@
       <c r="K12">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>105</v>
+      </c>
+      <c r="N12">
+        <f>COUNTIFS(consultas[Nº SALA],$M12,consultas[SEXO],N$1)</f>
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <f>COUNTIFS(consultas[Nº SALA],$M12,consultas[SEXO],O$1)</f>
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <f>COUNTIF(consultas[Nº SALA],M12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1078,8 +5031,23 @@
       <c r="K13">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>106</v>
+      </c>
+      <c r="N13">
+        <f>COUNTIFS(consultas[Nº SALA],$M13,consultas[SEXO],N$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>COUNTIFS(consultas[Nº SALA],$M13,consultas[SEXO],O$1)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>COUNTIF(consultas[Nº SALA],M13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1113,8 +5081,23 @@
       <c r="K14">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14">
+        <f>SUBTOTAL(109,sala_numeros[M])</f>
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <f>SUBTOTAL(109,sala_numeros[F])</f>
+        <v>17</v>
+      </c>
+      <c r="P14">
+        <f>SUBTOTAL(109,sala_numeros[Total])</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1149,7 +5132,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1516,7 +5499,7 @@
         <v>45000</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -1849,8 +5832,90 @@
         <v>104</v>
       </c>
     </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44810</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2">
+        <v>25000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44839</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+      <c r="E37" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="E40" s="2"/>
+    </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{427C2D7E-0C27-4850-BE7B-03732A034458}">
       <formula1>0</formula1>
       <formula2>125</formula2>
@@ -1858,119 +5923,607 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{68DE5A47-6E7D-4191-8B0A-486F24F73547}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{505E8C43-EE5E-4059-9F21-6ABA5F785484}">
+      <formula1>$M$2:$M$4</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7662A329-10DC-4280-8EBF-F0ACD8B8D2C9}">
+          <x14:formula1>
+            <xm:f>Diag.!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E438D341-FC26-495A-A94E-630E2A99E7E4}">
+          <x14:formula1>
+            <xm:f>EPS!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08906839-1BF7-4368-9342-684F1E202E83}">
+          <x14:formula1>
+            <xm:f>Sintomas!$A$2:$A$10001</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4CD760-6740-4E33-90A6-9BF78E4DF061}">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E75362-3890-46CF-8427-5C070E9135CC}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[M]])</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[F]])</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="12">
+        <f>COUNTIF(consultas[SINTOMAS],A2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[M]])</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[F]])</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="12">
+        <f>COUNTIF(consultas[SINTOMAS],A3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[M]])</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[F]])</f>
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <f>COUNTIF(consultas[SINTOMAS],A4)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[M]])</f>
+        <v>7</v>
+      </c>
+      <c r="C5" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[F]])</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <f>COUNTIF(consultas[SINTOMAS],A5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[M]])</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[F]])</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <f>COUNTIF(consultas[SINTOMAS],A6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[M]])</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <f>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[F]])</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <f>COUNTIF(consultas[SINTOMAS],A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="12">
+        <f>SUBTOTAL(109,sintomas[M])</f>
+        <v>19</v>
+      </c>
+      <c r="C8" s="12">
+        <f>SUBTOTAL(109,sintomas[F])</f>
+        <v>17</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SUBTOTAL(109,sintomas[cant])</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2260C24-ECBC-4716-8AEF-97E3F62FD32B}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[M]])</f>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[F]])</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(consultas[EPS],eps[[#This Row],[nombre]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[M]])</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[F]])</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(consultas[EPS],eps[[#This Row],[nombre]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[M]])</f>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[F]])</f>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(consultas[EPS],eps[[#This Row],[nombre]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[M]])</f>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[F]])</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(consultas[EPS],eps[[#This Row],[nombre]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <f>SUBTOTAL(109,eps[M])</f>
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f>SUBTOTAL(109,eps[F])</f>
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f>SUBTOTAL(109,eps[cant])</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE550DD9-DAE3-4B05-8D11-C395538864D8}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[M]])</f>
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[F]])</f>
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="17">
+        <f>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[M]])</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="17">
+        <f>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[F]])</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="17">
+        <f>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[M]])</f>
+        <v>7</v>
+      </c>
+      <c r="C4" s="17">
+        <f>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[F]])</f>
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4">
+        <f>COUNTIF(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <f>SUBTOTAL(109,diagnostico[M])</f>
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <f>SUBTOTAL(109,diagnostico[F])</f>
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <f>SUBTOTAL(109,diagnostico[cant])</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4CD760-6740-4E33-90A6-9BF78E4DF061}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
       <c r="B4">
-        <f>DCOUNT(Hospital!A1:K35,Hospital!E1,B1:L2)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <f>DCOUNT('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <f>DCOUNT(consultas[#All],'Consultas'!E1,condiciones[#All])</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <f>DAVERAGE('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
+        <v>41361.111111111109</v>
+      </c>
+      <c r="E5" s="5">
+        <f>DAVERAGE(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
+        <v>41361.111111111109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <f>DMAX('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
+        <v>75000</v>
+      </c>
+      <c r="E6" s="5">
+        <f>DMAX(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <f>DMIN('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
+        <v>25000</v>
+      </c>
+      <c r="E7" s="5">
+        <f>DMIN(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <f>DSUM('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
+        <v>1489000</v>
+      </c>
+      <c r="E8" s="5">
+        <f>DSUM(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
+        <v>1489000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
       <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="B11" t="s">
-        <v>70</v>
+      <c r="E11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{CDC7BA58-5C7D-4CF7-95AF-A46057055805}">
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{CDC7BA58-5C7D-4CF7-95AF-A46057055805}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{33D7395F-18FC-4A34-A10D-D18B1C1FB0E0}">
-      <formula1>0</formula1>
-      <formula2>125</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/db_hospital.xlsx
+++ b/db_hospital.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-j12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89519044-903E-4ADE-8B96-0BB2D1EA0D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8219EBB4-FB4E-490C-B11C-3EAF9DB290FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{96C65B63-FA5D-429C-A1F3-94D26BA5AEC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{96C65B63-FA5D-429C-A1F3-94D26BA5AEC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Consultas" sheetId="1" r:id="rId1"/>
-    <sheet name="Sintomas" sheetId="3" r:id="rId2"/>
-    <sheet name="EPS" sheetId="4" r:id="rId3"/>
-    <sheet name="Diag." sheetId="5" r:id="rId4"/>
-    <sheet name="estadisticas" sheetId="2" r:id="rId5"/>
+    <sheet name="Hospital" sheetId="6" r:id="rId1"/>
+    <sheet name="Consultas" sheetId="1" r:id="rId2"/>
+    <sheet name="Sintomas" sheetId="3" r:id="rId3"/>
+    <sheet name="EPS" sheetId="4" r:id="rId4"/>
+    <sheet name="Diag." sheetId="5" r:id="rId5"/>
+    <sheet name="estadisticas" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="87">
   <si>
     <t>PACIENTE</t>
   </si>
@@ -278,6 +282,27 @@
   </si>
   <si>
     <t>N° SALA</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>recaudado</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -365,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -384,117 +409,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <font>
         <b val="0"/>
@@ -513,81 +442,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -596,34 +453,8 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -648,6 +479,308 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1040,6 +1173,265 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
@@ -3967,17 +4359,789 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="EducacionIT" refreshedDate="44917.5755125" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="39" xr:uid="{DA49B621-9D02-4F27-BEBB-E37A76194E68}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="consultas"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="PACIENTE" numFmtId="0">
+      <sharedItems containsBlank="1" count="35">
+        <s v="CARLOS"/>
+        <s v="ANDRES"/>
+        <s v="MARIA"/>
+        <s v="JUAN"/>
+        <s v="ROSA"/>
+        <s v="PEDRO"/>
+        <s v="ANA"/>
+        <s v="GLORIA"/>
+        <s v="JAIRO"/>
+        <s v="ONESIMO"/>
+        <s v="BERTHA"/>
+        <s v="BELKIS"/>
+        <s v="DORIS"/>
+        <s v="MARIO"/>
+        <s v="JAMES"/>
+        <s v="DAIRO"/>
+        <s v="DEIBER"/>
+        <s v="JULIA"/>
+        <s v="JORGE"/>
+        <s v="MARTHA"/>
+        <s v="DIANA"/>
+        <s v="NANCY"/>
+        <s v="YAMILE"/>
+        <s v="SAMIR"/>
+        <s v="JHON"/>
+        <s v="CINTIA"/>
+        <s v="SINDY"/>
+        <s v="ANAIS"/>
+        <s v="HENRY"/>
+        <s v="ALBERTO"/>
+        <s v="ALEX"/>
+        <s v="FREDY"/>
+        <s v="ISABEL"/>
+        <s v="GIOVANNY"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FECHA ENTRADA" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-01-05T00:00:00" maxDate="2022-10-06T00:00:00"/>
+    </cacheField>
+    <cacheField name="SEXO" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="M"/>
+        <s v="F"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="EDAD" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="23" maxValue="60"/>
+    </cacheField>
+    <cacheField name="VALOR CONSULTA" numFmtId="6">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="25000" maxValue="75000"/>
+    </cacheField>
+    <cacheField name="SINTOMAS" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="DOLOR DE CABEZA"/>
+        <s v="MAREOS"/>
+        <s v="TOS"/>
+        <s v="DIARREA"/>
+        <s v="FIEBRE"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="EPS" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="SALUDCCOOP"/>
+        <s v="COOMEVA"/>
+        <s v="SALUDTOTAL"/>
+        <s v="NUEVA EPS"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="DIAGNOSTICO" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="GRIPE"/>
+        <s v="COLESTEROL ALTO"/>
+        <s v="PARASITOS"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SALA" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="MEDICO" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nº SALA" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="39">
+  <r>
+    <x v="0"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="25000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="45000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="35000"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="31"/>
+    <n v="25000"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="35"/>
+    <n v="45000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="45"/>
+    <n v="38000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="45000"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="75000"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="28"/>
+    <n v="35000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="45000"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="31"/>
+    <n v="35000"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="45"/>
+    <n v="35000"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="42"/>
+    <n v="25000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="45000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="38000"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="45"/>
+    <n v="45000"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="75000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="36"/>
+    <n v="35000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="45000"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="27"/>
+    <n v="35000"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="25000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="45000"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="75000"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="28"/>
+    <n v="35000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="45000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="31"/>
+    <n v="35000"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="45"/>
+    <n v="35000"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="42"/>
+    <n v="25000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="45000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="38000"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="45"/>
+    <n v="45000"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="75000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="UCI"/>
+    <s v="PEDRO"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="36"/>
+    <n v="35000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <s v="MARIA"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="45000"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="URGENCIAS"/>
+    <s v="JUAN"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <d v="2022-09-06T00:00:00"/>
+    <x v="0"/>
+    <n v="45"/>
+    <n v="25000"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <s v="MARIA"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2022-10-05T00:00:00"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="35000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <s v="PEDRO"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="34"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="34"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5859F3A-3B57-450A-9A70-00C5DCFE3F75}" name="TablaDinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="36">
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="6"/>
+        <item x="27"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="25"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="32"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="34"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item sd="0" x="1"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="7"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="recaudado" fld="4" baseField="0" baseItem="9" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E441EFC-D1E8-4F6E-9C94-A3F8C6776698}" name="consultas" displayName="consultas" ref="A1:K40">
-  <autoFilter ref="A1:K40" xr:uid="{6E441EFC-D1E8-4F6E-9C94-A3F8C6776698}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E441EFC-D1E8-4F6E-9C94-A3F8C6776698}" name="consultas" displayName="consultas" ref="A1:L40">
+  <autoFilter ref="A1:L40" xr:uid="{6E441EFC-D1E8-4F6E-9C94-A3F8C6776698}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EC82EA36-EB1F-49DB-A78A-F50AC33EE756}" name="PACIENTE" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{C8C2C046-88FD-4CEF-BF85-DB92A181E0F5}" name="FECHA ENTRADA" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C8C2C046-88FD-4CEF-BF85-DB92A181E0F5}" name="FECHA ENTRADA" dataDxfId="50"/>
     <tableColumn id="3" xr3:uid="{ADD20D36-BD44-44DC-AD63-8C9CB8E591A8}" name="SEXO"/>
     <tableColumn id="4" xr3:uid="{10727B86-F67A-4CA2-89E7-579B6DE2B962}" name="EDAD"/>
-    <tableColumn id="5" xr3:uid="{188E4BC3-9DE6-4BEA-BA07-B0330A9C93BC}" name="VALOR CONSULTA" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{188E4BC3-9DE6-4BEA-BA07-B0330A9C93BC}" name="VALOR CONSULTA" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
     <tableColumn id="6" xr3:uid="{CE3245D0-4345-44E2-90AF-6B2883BC986D}" name="SINTOMAS"/>
     <tableColumn id="7" xr3:uid="{3805ABBF-FA67-4E8E-8032-9FCB8BF93218}" name="EPS"/>
+    <tableColumn id="12" xr3:uid="{0068C1F7-A36A-4CCC-89F9-E7D215E5FC0F}" name="P" dataDxfId="12">
+      <calculatedColumnFormula>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" xr3:uid="{5FF9DCF8-C812-4517-9BEA-20F822FA3431}" name="DIAGNOSTICO"/>
     <tableColumn id="9" xr3:uid="{6A64243D-9D68-40FF-BFC4-64EC77D0EC33}" name="SALA"/>
     <tableColumn id="10" xr3:uid="{7B5E8CF0-A178-4CD4-BE64-1CB1FE201BCC}" name="MEDICO"/>
@@ -3988,14 +5152,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C8448426-7384-4C17-9436-DBD879A4F2CB}" name="sala_nombres" displayName="sala_nombres" ref="M1:P5" totalsRowCount="1">
-  <autoFilter ref="M1:P4" xr:uid="{C8448426-7384-4C17-9436-DBD879A4F2CB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C8448426-7384-4C17-9436-DBD879A4F2CB}" name="sala_nombres" displayName="sala_nombres" ref="N1:Q5" totalsRowCount="1">
+  <autoFilter ref="N1:Q4" xr:uid="{C8448426-7384-4C17-9436-DBD879A4F2CB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9A4E74E3-608A-4BEA-BED4-7AD6FA092E4D}" name="SALA" totalsRowLabel="Total"/>
     <tableColumn id="3" xr3:uid="{FACAF06C-F4FD-4799-A2CB-6A45AA4B1799}" name="M" totalsRowFunction="sum"/>
     <tableColumn id="4" xr3:uid="{93C25959-9B38-45C7-B858-162B68C50D9F}" name="F" totalsRowFunction="sum"/>
     <tableColumn id="2" xr3:uid="{E14355DF-19BC-445F-95E0-15BA64BA38C3}" name="Total" totalsRowFunction="sum">
-      <calculatedColumnFormula>COUNTIF(consultas[SALA],M2)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(consultas[SALA],N2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4003,18 +5167,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{944FFD16-F8E9-4AB3-BC8B-54439875215D}" name="sala_numeros" displayName="sala_numeros" ref="M7:P14" totalsRowCount="1">
-  <autoFilter ref="M7:P13" xr:uid="{944FFD16-F8E9-4AB3-BC8B-54439875215D}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{944FFD16-F8E9-4AB3-BC8B-54439875215D}" name="sala_numeros" displayName="sala_numeros" ref="N7:R13" totalsRowCount="1">
+  <autoFilter ref="N7:R12" xr:uid="{944FFD16-F8E9-4AB3-BC8B-54439875215D}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F02196C5-358E-43B0-AC91-5CFCD0BD54B5}" name="N° SALA" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{3287619F-FF33-4119-9C3A-2BA196659CDB}" name="M" totalsRowFunction="sum" dataDxfId="7">
-      <calculatedColumnFormula>COUNTIFS(consultas[Nº SALA],$M8,consultas[SEXO],N$1)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{3287619F-FF33-4119-9C3A-2BA196659CDB}" name="M" totalsRowFunction="sum" dataDxfId="47">
+      <calculatedColumnFormula>COUNTIFS(consultas[Nº SALA],$N8,consultas[SEXO],O$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{71C9643A-8015-49E5-93EF-F0993CCE7A0B}" name="F" totalsRowFunction="sum" dataDxfId="6">
-      <calculatedColumnFormula>COUNTIFS(consultas[Nº SALA],$M8,consultas[SEXO],O$1)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{71C9643A-8015-49E5-93EF-F0993CCE7A0B}" name="F" totalsRowFunction="sum" dataDxfId="46">
+      <calculatedColumnFormula>COUNTIFS(consultas[Nº SALA],$N8,consultas[SEXO],P$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C61461CC-35A1-49D4-B2DB-3BDB6B07A3C3}" name="Total" totalsRowFunction="sum" dataDxfId="5">
-      <calculatedColumnFormula>COUNTIF(consultas[Nº SALA],M8)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{C61461CC-35A1-49D4-B2DB-3BDB6B07A3C3}" name="Total" totalsRowFunction="sum" dataDxfId="45">
+      <calculatedColumnFormula>COUNTIF(consultas[Nº SALA],N8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{46FCE4AB-DE07-4B34-998E-864891C32607}" name="Columna1" dataDxfId="11">
+      <calculatedColumnFormula>MATCH(sala_numeros[[#This Row],[N° SALA]],consultas[Nº SALA],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4022,17 +5189,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1BD8535B-95FE-40ED-80F1-F867E2BB12CE}" name="sintomas" displayName="sintomas" ref="A1:D8" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1BD8535B-95FE-40ED-80F1-F867E2BB12CE}" name="sintomas" displayName="sintomas" ref="A1:D8" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:D7" xr:uid="{1BD8535B-95FE-40ED-80F1-F867E2BB12CE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FE59E412-D13D-4FFB-AC98-6B40A0D50C7E}" name="nombre" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{B40697AB-D92C-41F4-93FB-88A3DC66EE2C}" name="M" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="13">
+    <tableColumn id="1" xr3:uid="{FE59E412-D13D-4FFB-AC98-6B40A0D50C7E}" name="nombre" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{B40697AB-D92C-41F4-93FB-88A3DC66EE2C}" name="M" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[M]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E2CC96D7-2DA9-4C89-8E37-CA0AA4C1F54B}" name="F" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="12">
+    <tableColumn id="4" xr3:uid="{E2CC96D7-2DA9-4C89-8E37-CA0AA4C1F54B}" name="F" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>COUNTIFS(consultas[SINTOMAS],sintomas[[#This Row],[nombre]],consultas[SEXO],sintomas[[#Headers],[F]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7C946B64-55CF-46E8-83D7-95E10D913968}" name="cant" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="11">
+    <tableColumn id="2" xr3:uid="{7C946B64-55CF-46E8-83D7-95E10D913968}" name="cant" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>COUNTIF(consultas[SINTOMAS],A2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4045,13 +5212,13 @@
   <autoFilter ref="A1:D5" xr:uid="{7688E62D-3E39-41D3-9434-2A47DCDDBFA5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B0AA9F69-BE41-42E4-97D5-421616661BC9}" name="nombre" totalsRowLabel="Total"/>
-    <tableColumn id="4" xr3:uid="{C3316FC6-E38D-47BD-967B-920AC817EA02}" name="M" totalsRowFunction="sum" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{C3316FC6-E38D-47BD-967B-920AC817EA02}" name="M" totalsRowFunction="sum" dataDxfId="34">
       <calculatedColumnFormula>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[M]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{74F84E4D-37F2-4F2C-A6A4-4D7382A164F4}" name="F" totalsRowFunction="sum" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{74F84E4D-37F2-4F2C-A6A4-4D7382A164F4}" name="F" totalsRowFunction="sum" dataDxfId="33">
       <calculatedColumnFormula>COUNTIFS(consultas[EPS],eps[[#This Row],[nombre]],consultas[SEXO],eps[[#Headers],[F]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{58C7F580-DE5E-47E5-A261-6E465FD82430}" name="cant" totalsRowFunction="sum" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{58C7F580-DE5E-47E5-A261-6E465FD82430}" name="cant" totalsRowFunction="sum" dataDxfId="32">
       <calculatedColumnFormula>COUNTIF(consultas[EPS],eps[[#This Row],[nombre]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4063,14 +5230,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{86F2E751-2B35-422B-8E7D-B1FF30734C49}" name="diagnostico" displayName="diagnostico" ref="A1:D5" totalsRowCount="1">
   <autoFilter ref="A1:D4" xr:uid="{86F2E751-2B35-422B-8E7D-B1FF30734C49}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8096F61C-2C59-4592-A42F-61BF15553F5D}" name="nombre" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{69922583-5ADD-4609-8A13-F309F9BF2617}" name="M" totalsRowFunction="sum" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{8096F61C-2C59-4592-A42F-61BF15553F5D}" name="nombre" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{69922583-5ADD-4609-8A13-F309F9BF2617}" name="M" totalsRowFunction="sum" dataDxfId="29">
       <calculatedColumnFormula>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[M]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2E9574B2-FEDF-4473-B1B2-5F7BED59E396}" name="F" totalsRowFunction="sum" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{2E9574B2-FEDF-4473-B1B2-5F7BED59E396}" name="F" totalsRowFunction="sum" dataDxfId="28">
       <calculatedColumnFormula>COUNTIFS(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]],consultas[SEXO],diagnostico[[#Headers],[F]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{16E9E940-42D4-48C2-B17E-0511625B0478}" name="cant" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{16E9E940-42D4-48C2-B17E-0511625B0478}" name="cant" totalsRowFunction="sum" dataDxfId="27">
       <calculatedColumnFormula>COUNTIF(consultas[DIAGNOSTICO],diagnostico[[#This Row],[nombre]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4079,20 +5246,42 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{981CC706-1D39-4161-B333-B24C4E334487}" name="condiciones" displayName="condiciones" ref="A1:K2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{981CC706-1D39-4161-B333-B24C4E334487}" name="condiciones" displayName="condiciones" ref="A1:K3" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A1:K2" xr:uid="{981CC706-1D39-4161-B333-B24C4E334487}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{01AE878A-DBC7-4557-BBD6-D5D55A909672}" name="PACIENTE" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{C2EADEEC-4AEC-4D0B-A67B-BCF56FC6F7E6}" name="FECHA ENTRADA" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{FE98B3F5-EF62-48B9-8AAC-07870ABE0568}" name="SEXO" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{ED80729D-94D8-4AA7-89E5-C7F75FBD9D31}" name="EDAD" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{D21B0948-2F5B-4882-9A85-6079FA28F7D3}" name="VALOR CONSULTA" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{F07DB86B-840F-4A91-AF78-3EBE9FF94938}" name="SINTOMAS" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{8B97ECAE-C44A-4352-8245-F057FD32A5E1}" name="EPS" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{90E3307A-9018-4FE7-B90D-BFFDC7063DA2}" name="DIAGNOSTICO" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{3DB5A69B-1E06-4302-954C-896C7EB33553}" name="SALA" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{68459C48-FD1B-4091-BA0D-9F12ACE78A94}" name="MEDICO" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{E2F6BA46-1715-4664-B357-3382762F6E79}" name="Nº SALA" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{01AE878A-DBC7-4557-BBD6-D5D55A909672}" name="PACIENTE" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="10">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[PACIENTE]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{C2EADEEC-4AEC-4D0B-A67B-BCF56FC6F7E6}" name="FECHA ENTRADA" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="9">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[FECHA ENTRADA]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{FE98B3F5-EF62-48B9-8AAC-07870ABE0568}" name="SEXO" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="8">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[SEXO]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{ED80729D-94D8-4AA7-89E5-C7F75FBD9D31}" name="EDAD" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="7">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[EDAD]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D21B0948-2F5B-4882-9A85-6079FA28F7D3}" name="VALOR CONSULTA" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="6">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[VALOR CONSULTA]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F07DB86B-840F-4A91-AF78-3EBE9FF94938}" name="SINTOMAS" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="5">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[SINTOMAS]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{8B97ECAE-C44A-4352-8245-F057FD32A5E1}" name="EPS" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="4">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[EPS]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{90E3307A-9018-4FE7-B90D-BFFDC7063DA2}" name="DIAGNOSTICO" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="3">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[DIAGNOSTICO]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3DB5A69B-1E06-4302-954C-896C7EB33553}" name="SALA" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="2">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[SALA]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{68459C48-FD1B-4091-BA0D-9F12ACE78A94}" name="MEDICO" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="1">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[MEDICO]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E2F6BA46-1715-4664-B357-3382762F6E79}" name="Nº SALA" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="0">
+      <totalsRowFormula>MATCH(condiciones[[#Headers],[Nº SALA]],consultas[#Headers],0)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4394,11 +5583,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CF754D-FB60-4104-B35A-90837A53FE99}">
+  <dimension ref="A3:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="22">
+        <v>45000</v>
+      </c>
+      <c r="C5" s="22">
+        <v>70000</v>
+      </c>
+      <c r="D5" s="22">
+        <v>175000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>90000</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="22">
+        <v>198000</v>
+      </c>
+      <c r="C6" s="22">
+        <v>300000</v>
+      </c>
+      <c r="D6" s="22">
+        <v>155000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>181000</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22">
+        <v>834000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="22">
+        <v>90000</v>
+      </c>
+      <c r="C7" s="22">
+        <v>25000</v>
+      </c>
+      <c r="D7" s="22">
+        <v>70000</v>
+      </c>
+      <c r="E7" s="22">
+        <v>90000</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="22">
+        <v>333000</v>
+      </c>
+      <c r="C10" s="22">
+        <v>395000</v>
+      </c>
+      <c r="D10" s="22">
+        <v>400000</v>
+      </c>
+      <c r="E10" s="22">
+        <v>361000</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
+        <v>1489000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363A3A89-618A-42AA-9659-E5C231C362B4}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,15 +5782,17 @@
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4441,31 +5815,34 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4487,35 +5864,39 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>102</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2">
-        <f>COUNTIFS(consultas[SALA],$M2,consultas[SEXO],N$1)</f>
+      <c r="O2">
+        <f>COUNTIFS(consultas[SALA],$N2,consultas[SEXO],O$1)</f>
         <v>9</v>
       </c>
-      <c r="O2">
-        <f>COUNTIFS(consultas[SALA],$M2,consultas[SEXO],O$1)</f>
+      <c r="P2">
+        <f>COUNTIFS(consultas[SALA],$N2,consultas[SEXO],P$1)</f>
         <v>4</v>
       </c>
-      <c r="P2">
-        <f>COUNTIF(consultas[SALA],M2)</f>
+      <c r="Q2">
+        <f>COUNTIF(consultas[SALA],N2)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4537,35 +5918,39 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>105</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3">
-        <f>COUNTIFS(consultas[SALA],$M3,consultas[SEXO],N$1)</f>
+      <c r="O3">
+        <f>COUNTIFS(consultas[SALA],$N3,consultas[SEXO],O$1)</f>
         <v>5</v>
       </c>
-      <c r="O3">
-        <f>COUNTIFS(consultas[SALA],$M3,consultas[SEXO],O$1)</f>
+      <c r="P3">
+        <f>COUNTIFS(consultas[SALA],$N3,consultas[SEXO],P$1)</f>
         <v>6</v>
       </c>
-      <c r="P3">
-        <f>COUNTIF(consultas[SALA],M3)</f>
+      <c r="Q3">
+        <f>COUNTIF(consultas[SALA],N3)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4587,35 +5972,39 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>104</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="N4">
-        <f>COUNTIFS(consultas[SALA],$M4,consultas[SEXO],N$1)</f>
+      <c r="O4">
+        <f>COUNTIFS(consultas[SALA],$N4,consultas[SEXO],O$1)</f>
         <v>5</v>
       </c>
-      <c r="O4">
-        <f>COUNTIFS(consultas[SALA],$M4,consultas[SEXO],O$1)</f>
+      <c r="P4">
+        <f>COUNTIFS(consultas[SALA],$N4,consultas[SEXO],P$1)</f>
         <v>7</v>
       </c>
-      <c r="P4">
-        <f>COUNTIF(consultas[SALA],M4)</f>
+      <c r="Q4">
+        <f>COUNTIF(consultas[SALA],N4)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4637,35 +6026,39 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>101</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f>SUBTOTAL(109,sala_nombres[M])</f>
         <v>19</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f>SUBTOTAL(109,sala_nombres[F])</f>
         <v>17</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f>SUBTOTAL(109,sala_nombres[Total])</f>
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4687,20 +6080,24 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4722,32 +6119,39 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>105</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>79</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>12</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>25</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>72</v>
       </c>
+      <c r="R7" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -4769,35 +6173,43 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>104</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>101</v>
       </c>
-      <c r="N8">
-        <f>COUNTIFS(consultas[Nº SALA],$M8,consultas[SEXO],N$1)</f>
+      <c r="O8">
+        <f>COUNTIFS(consultas[Nº SALA],$N8,consultas[SEXO],O$1)</f>
         <v>3</v>
       </c>
-      <c r="O8">
-        <f>COUNTIFS(consultas[Nº SALA],$M8,consultas[SEXO],O$1)</f>
+      <c r="P8">
+        <f>COUNTIFS(consultas[Nº SALA],$N8,consultas[SEXO],P$1)</f>
         <v>5</v>
       </c>
-      <c r="P8">
-        <f>COUNTIF(consultas[Nº SALA],M8)</f>
+      <c r="Q8">
+        <f>COUNTIF(consultas[Nº SALA],N8)</f>
         <v>8</v>
       </c>
+      <c r="R8" s="20">
+        <f>MATCH(sala_numeros[[#This Row],[N° SALA]],consultas[Nº SALA],0)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -4819,35 +6231,43 @@
       <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>101</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>102</v>
       </c>
-      <c r="N9">
-        <f>COUNTIFS(consultas[Nº SALA],$M9,consultas[SEXO],N$1)</f>
+      <c r="O9">
+        <f>COUNTIFS(consultas[Nº SALA],$N9,consultas[SEXO],O$1)</f>
         <v>6</v>
       </c>
-      <c r="O9">
-        <f>COUNTIFS(consultas[Nº SALA],$M9,consultas[SEXO],O$1)</f>
+      <c r="P9">
+        <f>COUNTIFS(consultas[Nº SALA],$N9,consultas[SEXO],P$1)</f>
         <v>3</v>
       </c>
-      <c r="P9">
-        <f>COUNTIF(consultas[Nº SALA],M9)</f>
+      <c r="Q9">
+        <f>COUNTIF(consultas[Nº SALA],N9)</f>
         <v>9</v>
       </c>
+      <c r="R9" s="20">
+        <f>MATCH(sala_numeros[[#This Row],[N° SALA]],consultas[Nº SALA],0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4869,35 +6289,43 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>28</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>24</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>102</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>103</v>
       </c>
-      <c r="N10">
-        <f>COUNTIFS(consultas[Nº SALA],$M10,consultas[SEXO],N$1)</f>
+      <c r="O10">
+        <f>COUNTIFS(consultas[Nº SALA],$N10,consultas[SEXO],O$1)</f>
         <v>0</v>
       </c>
-      <c r="O10">
-        <f>COUNTIFS(consultas[Nº SALA],$M10,consultas[SEXO],O$1)</f>
+      <c r="P10">
+        <f>COUNTIFS(consultas[Nº SALA],$N10,consultas[SEXO],P$1)</f>
         <v>2</v>
       </c>
-      <c r="P10">
-        <f>COUNTIF(consultas[Nº SALA],M10)</f>
+      <c r="Q10">
+        <f>COUNTIF(consultas[Nº SALA],N10)</f>
         <v>2</v>
       </c>
+      <c r="R10" s="20">
+        <f>MATCH(sala_numeros[[#This Row],[N° SALA]],consultas[Nº SALA],0)</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -4919,35 +6347,43 @@
       <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>105</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>104</v>
       </c>
-      <c r="N11">
-        <f>COUNTIFS(consultas[Nº SALA],$M11,consultas[SEXO],N$1)</f>
+      <c r="O11">
+        <f>COUNTIFS(consultas[Nº SALA],$N11,consultas[SEXO],O$1)</f>
         <v>4</v>
       </c>
-      <c r="O11">
-        <f>COUNTIFS(consultas[Nº SALA],$M11,consultas[SEXO],O$1)</f>
+      <c r="P11">
+        <f>COUNTIFS(consultas[Nº SALA],$N11,consultas[SEXO],P$1)</f>
         <v>5</v>
       </c>
-      <c r="P11">
-        <f>COUNTIF(consultas[Nº SALA],M11)</f>
+      <c r="Q11">
+        <f>COUNTIF(consultas[Nº SALA],N11)</f>
         <v>9</v>
       </c>
+      <c r="R11" s="20">
+        <f>MATCH(sala_numeros[[#This Row],[N° SALA]],consultas[Nº SALA],0)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -4969,35 +6405,43 @@
       <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>23</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>104</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>105</v>
       </c>
-      <c r="N12">
-        <f>COUNTIFS(consultas[Nº SALA],$M12,consultas[SEXO],N$1)</f>
+      <c r="O12">
+        <f>COUNTIFS(consultas[Nº SALA],$N12,consultas[SEXO],O$1)</f>
         <v>6</v>
       </c>
-      <c r="O12">
-        <f>COUNTIFS(consultas[Nº SALA],$M12,consultas[SEXO],O$1)</f>
+      <c r="P12">
+        <f>COUNTIFS(consultas[Nº SALA],$N12,consultas[SEXO],P$1)</f>
         <v>2</v>
       </c>
-      <c r="P12">
-        <f>COUNTIF(consultas[Nº SALA],M12)</f>
+      <c r="Q12">
+        <f>COUNTIF(consultas[Nº SALA],N12)</f>
         <v>8</v>
       </c>
+      <c r="R12" s="20">
+        <f>MATCH(sala_numeros[[#This Row],[N° SALA]],consultas[Nº SALA],0)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -5019,35 +6463,39 @@
       <c r="G13" t="s">
         <v>30</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>28</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>101</v>
       </c>
-      <c r="M13">
-        <v>106</v>
-      </c>
-      <c r="N13">
-        <f>COUNTIFS(consultas[Nº SALA],$M13,consultas[SEXO],N$1)</f>
-        <v>0</v>
+      <c r="N13" t="s">
+        <v>72</v>
       </c>
       <c r="O13">
-        <f>COUNTIFS(consultas[Nº SALA],$M13,consultas[SEXO],O$1)</f>
-        <v>0</v>
+        <f>SUBTOTAL(109,sala_numeros[M])</f>
+        <v>19</v>
       </c>
       <c r="P13">
-        <f>COUNTIF(consultas[Nº SALA],M13)</f>
-        <v>0</v>
+        <f>SUBTOTAL(109,sala_numeros[F])</f>
+        <v>17</v>
+      </c>
+      <c r="Q13">
+        <f>SUBTOTAL(109,sala_numeros[Total])</f>
+        <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -5069,35 +6517,24 @@
       <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>102</v>
       </c>
-      <c r="M14" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14">
-        <f>SUBTOTAL(109,sala_numeros[M])</f>
-        <v>19</v>
-      </c>
-      <c r="O14">
-        <f>SUBTOTAL(109,sala_numeros[F])</f>
-        <v>17</v>
-      </c>
-      <c r="P14">
-        <f>SUBTOTAL(109,sala_numeros[Total])</f>
-        <v>36</v>
-      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -5119,20 +6556,24 @@
       <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
         <v>31</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>22</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -5154,20 +6595,24 @@
       <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>28</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>24</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -5189,20 +6634,24 @@
       <c r="G17" t="s">
         <v>30</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -5224,20 +6673,24 @@
       <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
         <v>21</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>22</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>23</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -5259,20 +6712,24 @@
       <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>28</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>24</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -5294,20 +6751,24 @@
       <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
         <v>31</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>16</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>17</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -5329,20 +6790,24 @@
       <c r="G21" t="s">
         <v>30</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
         <v>15</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>22</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>23</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -5364,20 +6829,24 @@
       <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
         <v>21</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>24</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -5399,20 +6868,24 @@
       <c r="G23" t="s">
         <v>27</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>17</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -5434,20 +6907,24 @@
       <c r="G24" t="s">
         <v>30</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
         <v>15</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>22</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>23</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5469,20 +6946,24 @@
       <c r="G25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
         <v>31</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>28</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>24</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -5504,20 +6985,24 @@
       <c r="G26" t="s">
         <v>20</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>15</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>16</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>17</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5539,20 +7024,24 @@
       <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
         <v>15</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>22</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>23</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -5574,20 +7063,24 @@
       <c r="G28" t="s">
         <v>30</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>28</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>24</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -5609,20 +7102,24 @@
       <c r="G29" t="s">
         <v>14</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
         <v>15</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>16</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>17</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -5644,20 +7141,24 @@
       <c r="G30" t="s">
         <v>20</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>31</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>23</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -5679,20 +7180,24 @@
       <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
         <v>15</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>28</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>24</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -5714,20 +7219,24 @@
       <c r="G32" t="s">
         <v>30</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
         <v>15</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>16</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>17</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -5749,20 +7258,24 @@
       <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
         <v>21</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>22</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>23</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -5784,20 +7297,24 @@
       <c r="G34" t="s">
         <v>20</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
         <v>15</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>28</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>24</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -5819,20 +7336,24 @@
       <c r="G35" t="s">
         <v>27</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
         <v>31</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>16</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>17</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5854,20 +7375,24 @@
       <c r="G36" t="s">
         <v>30</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
         <v>15</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>16</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>24</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -5889,30 +7414,46 @@
       <c r="G37" t="s">
         <v>14</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
         <v>15</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>28</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>23</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="E38" s="2"/>
+      <c r="H38" t="e">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="E39" s="2"/>
+      <c r="H39" t="e">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="E40" s="2"/>
+      <c r="H40" t="e">
+        <f>MATCH(consultas[[#This Row],[EPS]],eps[nombre],0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -5923,8 +7464,8 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{68DE5A47-6E7D-4191-8B0A-486F24F73547}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{505E8C43-EE5E-4059-9F21-6ABA5F785484}">
-      <formula1>$M$2:$M$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K41:K1048576 J1:J40" xr:uid="{505E8C43-EE5E-4059-9F21-6ABA5F785484}">
+      <formula1>$N$2:$N$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5936,18 +7477,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7662A329-10DC-4280-8EBF-F0ACD8B8D2C9}">
           <x14:formula1>
             <xm:f>Diag.!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H37</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E438D341-FC26-495A-A94E-630E2A99E7E4}">
-          <x14:formula1>
-            <xm:f>EPS!$A$2:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>I1:I37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08906839-1BF7-4368-9342-684F1E202E83}">
           <x14:formula1>
@@ -5961,7 +7496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E75362-3890-46CF-8427-5C070E9135CC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -6119,12 +7654,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2260C24-ECBC-4716-8AEF-97E3F62FD32B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6243,7 +7778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE550DD9-DAE3-4B05-8D11-C395538864D8}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -6349,12 +7884,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4CD760-6740-4E33-90A6-9BF78E4DF061}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6364,8 +7899,8 @@
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" customWidth="1"/>
     <col min="10" max="11" width="9.7109375" customWidth="1"/>
@@ -6421,97 +7956,143 @@
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
+      <c r="A3" s="8">
+        <f>MATCH(condiciones[[#Headers],[PACIENTE]],consultas[#Headers],0)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <f>MATCH(condiciones[[#Headers],[FECHA ENTRADA]],consultas[#Headers],0)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <f>MATCH(condiciones[[#Headers],[SEXO]],consultas[#Headers],0)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <f>MATCH(condiciones[[#Headers],[EDAD]],consultas[#Headers],0)</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="8">
+        <f>MATCH(condiciones[[#Headers],[VALOR CONSULTA]],consultas[#Headers],0)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="8">
+        <f>MATCH(condiciones[[#Headers],[SINTOMAS]],consultas[#Headers],0)</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="8">
+        <f>MATCH(condiciones[[#Headers],[EPS]],consultas[#Headers],0)</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="8">
+        <f>MATCH(condiciones[[#Headers],[DIAGNOSTICO]],consultas[#Headers],0)</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="8">
+        <f>MATCH(condiciones[[#Headers],[SALA]],consultas[#Headers],0)</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="8">
+        <f>MATCH(condiciones[[#Headers],[MEDICO]],consultas[#Headers],0)</f>
+        <v>11</v>
+      </c>
+      <c r="K3" s="8">
+        <f>MATCH(condiciones[[#Headers],[Nº SALA]],consultas[#Headers],0)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4">
-        <f>DCOUNT('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
-        <v>36</v>
-      </c>
-      <c r="E4">
-        <f>DCOUNT(consultas[#All],'Consultas'!E1,condiciones[#All])</f>
-        <v>36</v>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="5">
-        <f>DAVERAGE('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
-        <v>41361.111111111109</v>
-      </c>
-      <c r="E5" s="5">
-        <f>DAVERAGE(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
-        <v>41361.111111111109</v>
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <f>DCOUNT('Consultas'!A:M,'Consultas'!E1,A1:K2)</f>
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <f>DCOUNT(consultas[#All],'Consultas'!E1,condiciones[#All])</f>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5">
-        <f>DMAX('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
-        <v>75000</v>
+        <f>DAVERAGE('Consultas'!A:M,'Consultas'!E1,A1:K2)</f>
+        <v>41361.111111111109</v>
       </c>
       <c r="E6" s="5">
-        <f>DMAX(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
-        <v>75000</v>
+        <f>DAVERAGE(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
+        <v>41361.111111111109</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5">
-        <f>DMIN('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
-        <v>25000</v>
+        <f>DMAX('Consultas'!A:M,'Consultas'!E1,A1:K2)</f>
+        <v>75000</v>
       </c>
       <c r="E7" s="5">
-        <f>DMIN(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
-        <v>25000</v>
+        <f>DMAX(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
+        <v>75000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="5">
+        <f>DMIN('Consultas'!A:M,'Consultas'!E1,A1:K2)</f>
+        <v>25000</v>
+      </c>
+      <c r="E8" s="5">
+        <f>DMIN(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="5">
-        <f>DSUM('Consultas'!A:K,'Consultas'!E1,A1:K2)</f>
+      <c r="B9" s="5">
+        <f>DSUM('Consultas'!A:M,'Consultas'!E1,A1:K2)</f>
         <v>1489000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="5">
         <f>DSUM(consultas[#All],consultas[[#Headers],[VALOR CONSULTA]],condiciones[#All])</f>
         <v>1489000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>75</v>
       </c>
     </row>

--- a/db_hospital.xlsx
+++ b/db_hospital.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-m15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5C0B4-9270-4961-9305-F7EB7D4E6B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268F2E7E-A40E-4941-B32F-63119BD0468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{6494C37B-3A67-4ADF-9076-806615D835E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{6494C37B-3A67-4ADF-9076-806615D835E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cobertura" sheetId="4" r:id="rId2"/>
+    <sheet name="Sintomas" sheetId="3" r:id="rId3"/>
+    <sheet name="Medicos" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Medicos!$B$1:$B$4</definedName>
+    <definedName name="encabezados_coberturas">Cobertura!$A$1:$E$1</definedName>
+    <definedName name="tabla_coberturas">Cobertura!$A$1:$E$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="72">
   <si>
     <t>PACIENTE</t>
   </si>
@@ -48,9 +57,6 @@
     <t>EDAD</t>
   </si>
   <si>
-    <t>VALOR CONSULTA</t>
-  </si>
-  <si>
     <t>SINTOMAS</t>
   </si>
   <si>
@@ -220,16 +226,57 @@
   </si>
   <si>
     <t>GIOVANNY</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>COPAGO</t>
+  </si>
+  <si>
+    <t>DESCUENTO</t>
+  </si>
+  <si>
+    <t>CONSULTA</t>
+  </si>
+  <si>
+    <t>OBRA SOCIAL</t>
+  </si>
+  <si>
+    <t>CUOTA</t>
+  </si>
+  <si>
+    <t>COINCIDIR</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>DIAGNOSTICOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,12 +285,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,18 +320,244 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -576,13 +867,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C483026B-3EEF-446A-A528-1C852E70868D}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,456 +903,558 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40973</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G2,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <f>IFERROR(VLOOKUP($G2,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
         <v>40913</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>40944</v>
-      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G3,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>IFERROR(VLOOKUP($G3,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40913</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G4,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <f>IFERROR(VLOOKUP($G4,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.15</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
-        <v>40973</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2">
-        <v>35000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4">
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
         <v>40913</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2">
         <v>25000</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G5,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <f>IFERROR(VLOOKUP($G5,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.05</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-      <c r="K5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>40944</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>45000</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G6,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f>IFERROR(VLOOKUP($G6,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>40973</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>45</v>
       </c>
       <c r="E7" s="2">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G7,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f>IFERROR(VLOOKUP($G7,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40944</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="K7">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G8,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <f>IFERROR(VLOOKUP($G8,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
         <v>40913</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2">
-        <v>45000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1">
-        <v>40944</v>
-      </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9" s="2">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G9,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <f>IFERROR(VLOOKUP($G9,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.05</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
-        <v>40973</v>
+        <v>40944</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2">
         <v>35000</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G10,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <f>IFERROR(VLOOKUP($G10,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.15</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>40913</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G11,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f>IFERROR(VLOOKUP($G11,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <v>40944</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G12,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <f>IFERROR(VLOOKUP($G12,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.05</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1">
         <v>40973</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G13,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <f>IFERROR(VLOOKUP($G13,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.05</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>40913</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>42</v>
@@ -1054,173 +1463,213 @@
         <v>25000</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G14,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <f>IFERROR(VLOOKUP($G14,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.05</v>
+      </c>
+      <c r="J14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14">
+      <c r="M14">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1">
         <v>40944</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>35</v>
       </c>
       <c r="E15" s="2">
+        <v>75000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G15,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <f>IFERROR(VLOOKUP($G15,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.05</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1">
+        <v>40913</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2">
         <v>45000</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G16,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <f>IFERROR(VLOOKUP($G16,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>40944</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2">
+        <v>75000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
         <v>29</v>
       </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H17" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G17,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f>IFERROR(VLOOKUP($G17,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1">
-        <v>40973</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2">
-        <v>38000</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1">
-        <v>40913</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45000</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
+      <c r="M17">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
         <v>40944</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>35</v>
       </c>
       <c r="E18" s="2">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G18,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f>IFERROR(VLOOKUP($G18,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>22</v>
       </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1">
         <v>40973</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>36</v>
@@ -1229,585 +1678,1110 @@
         <v>35000</v>
       </c>
       <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G19,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f>IFERROR(VLOOKUP($G19,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40973</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G20,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <f>IFERROR(VLOOKUP($G20,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.05</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1">
+        <v>40973</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2">
+        <v>38000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
         <v>26</v>
       </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H21" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G21,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <f>IFERROR(VLOOKUP($G21,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40913</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G22,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f>IFERROR(VLOOKUP($G22,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
         <v>15</v>
       </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19">
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1">
-        <v>40913</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45000</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1">
-        <v>40944</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>27</v>
-      </c>
-      <c r="E21" s="2">
-        <v>35000</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1">
-        <v>40973</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
         <v>40913</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2">
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G23,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <f>IFERROR(VLOOKUP($G23,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
+      <c r="M23">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1">
-        <v>40944</v>
+        <v>40913</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G24,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f>IFERROR(VLOOKUP($G24,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J24" t="s">
         <v>30</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>15</v>
       </c>
-      <c r="I24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24">
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <v>40973</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2">
         <v>35000</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G25,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f>IFERROR(VLOOKUP($G25,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>40973</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
         <v>28</v>
       </c>
-      <c r="J25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="1">
-        <v>40913</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26">
-        <v>29</v>
-      </c>
       <c r="E26" s="2">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="H26" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G26,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <f>IFERROR(VLOOKUP($G26,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.15</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
         <v>40944</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G27,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f>IFERROR(VLOOKUP($G27,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40944</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
         <v>27</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1">
-        <v>40973</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28">
-        <v>45</v>
       </c>
       <c r="E28" s="2">
         <v>35000</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G28,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f>IFERROR(VLOOKUP($G28,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
         <v>21</v>
       </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28">
+      <c r="L28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1">
         <v>40913</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E29" s="2">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
         <v>26</v>
       </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G29,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <f>IFERROR(VLOOKUP($G29,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
         <v>15</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>16</v>
       </c>
-      <c r="J29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
-        <v>40944</v>
+        <v>40913</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2">
         <v>45000</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G30,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f>IFERROR(VLOOKUP($G30,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
       </c>
       <c r="B31" s="1">
         <v>40973</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2">
         <v>38000</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G31,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f>IFERROR(VLOOKUP($G31,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
         <v>27</v>
       </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>40944</v>
+      </c>
+      <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="K31">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="1">
-        <v>40913</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
       <c r="D32">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2">
         <v>45000</v>
       </c>
       <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
         <v>13</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G32,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <f>IFERROR(VLOOKUP($G32,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.05</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1">
+        <v>40973</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G33,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <f>IFERROR(VLOOKUP($G33,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.05</v>
+      </c>
+      <c r="J33" t="s">
         <v>30</v>
       </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="1">
-        <v>40944</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2">
-        <v>75000</v>
-      </c>
-      <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
         <v>23</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
         <v>40973</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2">
         <v>35000</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G34,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f>IFERROR(VLOOKUP($G34,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J34" t="s">
         <v>20</v>
       </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1">
+        <v>40944</v>
+      </c>
+      <c r="C35" t="s">
         <v>24</v>
-      </c>
-      <c r="K34">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="1">
-        <v>40913</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
       </c>
       <c r="D35">
         <v>25</v>
       </c>
       <c r="E35" s="2">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
         <v>29</v>
       </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" t="s">
-        <v>16</v>
+      <c r="H35" s="4" t="b">
+        <f>IFERROR(VLOOKUP(G35,tabla_coberturas,MATCH(H$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <f>IFERROR(VLOOKUP($G35,tabla_coberturas,MATCH(I$1,encabezados_coberturas,0),0),"no disponible")</f>
+        <v>0.3</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35">
-        <v>104</v>
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M35" xr:uid="{C483026B-3EEF-446A-A528-1C852E70868D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M35">
+      <sortCondition ref="A1:A35"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M36">
+    <sortCondition ref="B2:B36"/>
+    <sortCondition ref="A2:A36"/>
+    <sortCondition ref="D2:D36"/>
+    <sortCondition ref="C2:C36"/>
+    <sortCondition ref="F2:F36"/>
+    <sortCondition ref="J2:J36"/>
+    <sortCondition ref="K2:K36"/>
+  </sortState>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{27133E02-381F-4134-9EBE-BC796C0E1AFB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M1048576">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="VERDADERO">
+      <formula>NOT(ISERROR(SEARCH("VERDADERO",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="FALSO">
+      <formula>NOT(ISERROR(SEARCH("FALSO",A1)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>$L1="JUAN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$L1="PEDRO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$L1="MARIA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27133E02-381F-4134-9EBE-BC796C0E1AFB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{E813FD29-FE27-485D-A9E9-DECB35DF9CD9}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0.1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0.2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D2AF9D-6C29-42A2-B5F5-2F9B1BD5EBA3}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>17500</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2">
+        <f>MATCH(G2,$A$1:$E$1,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20540</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="0">MATCH(G3,$A$1:$E$1,)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12850</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>23990</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>18000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB616C0E-8FC3-40DE-BCA2-AC4258D87B11}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5FB2F5-93B2-4BDA-B8D9-E01073B9804A}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B4" xr:uid="{DD5FB2F5-93B2-4BDA-B8D9-E01073B9804A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db_hospital.xlsx
+++ b/db_hospital.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-m15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268F2E7E-A40E-4941-B32F-63119BD0468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C17FC-258C-4419-944E-A264687D66C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{6494C37B-3A67-4ADF-9076-806615D835E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6494C37B-3A67-4ADF-9076-806615D835E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Cobertura" sheetId="4" r:id="rId2"/>
-    <sheet name="Sintomas" sheetId="3" r:id="rId3"/>
-    <sheet name="Medicos" sheetId="2" r:id="rId4"/>
+    <sheet name="Hospital" sheetId="1" r:id="rId1"/>
+    <sheet name="Estadisticas" sheetId="5" r:id="rId2"/>
+    <sheet name="Cobertura" sheetId="4" r:id="rId3"/>
+    <sheet name="Sintomas" sheetId="3" r:id="rId4"/>
+    <sheet name="Medicos" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$M$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Medicos!$B$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hospital!$A$1:$M$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Medicos!$B$1:$B$4</definedName>
     <definedName name="encabezados_coberturas">Cobertura!$A$1:$E$1</definedName>
     <definedName name="tabla_coberturas">Cobertura!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="77">
   <si>
     <t>PACIENTE</t>
   </si>
@@ -234,6 +238,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>COPAGO</t>
   </si>
   <si>
@@ -259,6 +266,18 @@
   </si>
   <si>
     <t>DIAGNOSTICOS</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de PACIENTE</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
   </si>
 </sst>
 </file>
@@ -325,7 +344,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -335,6 +354,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -568,6 +595,823 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="EducacionIT" refreshedDate="44957.704584490741" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="35" xr:uid="{3FEC0182-C778-454B-AC33-006C73950A10}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:M1048576" sheet="Hospital"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="PACIENTE" numFmtId="0">
+      <sharedItems containsBlank="1" count="35">
+        <s v="ALBERTO"/>
+        <s v="ALEX"/>
+        <s v="ANA"/>
+        <s v="ANAIS"/>
+        <s v="ANDRES"/>
+        <s v="BELKIS"/>
+        <s v="BERTHA"/>
+        <s v="CARLOS"/>
+        <s v="CINTIA"/>
+        <s v="DAIRO"/>
+        <s v="DEIBER"/>
+        <s v="DIANA"/>
+        <s v="DORIS"/>
+        <s v="FREDY"/>
+        <s v="GIOVANNY"/>
+        <s v="GLORIA"/>
+        <s v="HENRY"/>
+        <s v="ISABEL"/>
+        <s v="JAIRO"/>
+        <s v="JAMES"/>
+        <s v="JHON"/>
+        <s v="JORGE"/>
+        <s v="JUAN"/>
+        <s v="JULIA"/>
+        <s v="MARIA"/>
+        <s v="MARIO"/>
+        <s v="MARTHA"/>
+        <s v="NANCY"/>
+        <s v="ONESIMO"/>
+        <s v="PEDRO"/>
+        <s v="ROSA"/>
+        <s v="SAMIR"/>
+        <s v="SINDY"/>
+        <s v="YAMILE"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FECHA ENTRADA" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-01-05T00:00:00" maxDate="2012-03-06T00:00:00"/>
+    </cacheField>
+    <cacheField name="SEXO" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="M"/>
+        <s v="F"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="EDAD" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="23" maxValue="80"/>
+    </cacheField>
+    <cacheField name="CONSULTA" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="25000" maxValue="75000"/>
+    </cacheField>
+    <cacheField name="SINTOMAS" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="FIEBRE"/>
+        <s v="DOLOR DE CABEZA"/>
+        <s v="MAREOS"/>
+        <s v="TOS"/>
+        <s v="DIARREA"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="EPS" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="SALUDTOTAL"/>
+        <s v="NUEVA EPS"/>
+        <s v="SALUDCCOOP"/>
+        <s v="COOMEVA"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COPAGO" numFmtId="44">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="DESCUENTO" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.05" maxValue="0.3"/>
+    </cacheField>
+    <cacheField name="DIAGNOSTICO" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="GRIPE"/>
+        <s v="COLESTEROL ALTO"/>
+        <s v="PARASITOS"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SALA" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="MEDICO" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="MARIA"/>
+        <s v="JUAN"/>
+        <s v="PEDRO"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nº SALA" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="105"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
+  <r>
+    <x v="0"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="38000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="0.15"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="45"/>
+    <n v="45000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="45000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="0.15"/>
+    <x v="1"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="42"/>
+    <n v="25000"/>
+    <x v="3"/>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="0.05"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="45000"/>
+    <x v="2"/>
+    <x v="3"/>
+    <b v="0"/>
+    <n v="0.2"/>
+    <x v="1"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="45"/>
+    <n v="35000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="0.3"/>
+    <x v="1"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="31"/>
+    <n v="35000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="0.15"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="25000"/>
+    <x v="1"/>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="0.05"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="31"/>
+    <n v="35000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="0.15"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="45"/>
+    <n v="45000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="75000"/>
+    <x v="2"/>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="0.05"/>
+    <x v="1"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="25000"/>
+    <x v="0"/>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="0.05"/>
+    <x v="1"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="42"/>
+    <n v="25000"/>
+    <x v="3"/>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="0.05"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="75000"/>
+    <x v="2"/>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="0.05"/>
+    <x v="1"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="45000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="0.15"/>
+    <x v="2"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="75000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="45000"/>
+    <x v="4"/>
+    <x v="3"/>
+    <b v="0"/>
+    <n v="0.2"/>
+    <x v="2"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="36"/>
+    <n v="35000"/>
+    <x v="3"/>
+    <x v="3"/>
+    <b v="0"/>
+    <n v="0.2"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="28"/>
+    <n v="35000"/>
+    <x v="4"/>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="0.05"/>
+    <x v="2"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="38000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="0.15"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="45000"/>
+    <x v="0"/>
+    <x v="3"/>
+    <b v="0"/>
+    <n v="0.2"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="56"/>
+    <n v="45000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="0.15"/>
+    <x v="2"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="31"/>
+    <n v="25000"/>
+    <x v="4"/>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="0.3"/>
+    <x v="2"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="36"/>
+    <n v="35000"/>
+    <x v="3"/>
+    <x v="3"/>
+    <b v="0"/>
+    <n v="0.2"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="35000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="0.15"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="45000"/>
+    <x v="4"/>
+    <x v="3"/>
+    <b v="0"/>
+    <n v="0.2"/>
+    <x v="2"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="27"/>
+    <n v="35000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="45000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <b v="1"/>
+    <n v="0.15"/>
+    <x v="1"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <d v="2012-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="45000"/>
+    <x v="0"/>
+    <x v="3"/>
+    <b v="0"/>
+    <n v="0.2"/>
+    <x v="0"/>
+    <s v="URGENCIAS"/>
+    <x v="1"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="45"/>
+    <n v="38000"/>
+    <x v="1"/>
+    <x v="3"/>
+    <b v="0"/>
+    <n v="0.2"/>
+    <x v="0"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="45000"/>
+    <x v="0"/>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="0.05"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="28"/>
+    <n v="35000"/>
+    <x v="4"/>
+    <x v="2"/>
+    <b v="1"/>
+    <n v="0.05"/>
+    <x v="2"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="102"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <d v="2012-03-05T00:00:00"/>
+    <x v="1"/>
+    <n v="70"/>
+    <n v="35000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="0.3"/>
+    <x v="1"/>
+    <s v="GENERAL"/>
+    <x v="0"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <d v="2012-02-05T00:00:00"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="75000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <b v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+    <s v="UCI"/>
+    <x v="2"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE12D091-30C3-46CD-8343-46A79C357419}" name="TablaDinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField dataField="1" showAll="0">
+      <items count="36">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="11"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Cuenta de PACIENTE" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C483026B-3EEF-446A-A528-1C852E70868D}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K22" activeCellId="1" sqref="F22 K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,9 +1731,10 @@
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -912,10 +1757,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -930,7 +1775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -972,8 +1817,12 @@
       <c r="M2">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="str">
+        <f>IF(AND(F2="FIEBRE",K2="URGENCIAS"),"internar",IF(OR(F2="FIEBRE",F2="DOLOR DE CABEZA"),"atender inmediatamente","sala de espera"))</f>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1015,8 +1864,12 @@
       <c r="M3">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N35" si="0">IF(AND(F3="FIEBRE",K3="URGENCIAS"),"internar",IF(OR(F3="FIEBRE",F3="DOLOR DE CABEZA"),"atender inmediatamente","sala de espera"))</f>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1058,8 +1911,12 @@
       <c r="M4">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1101,8 +1958,12 @@
       <c r="M5">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1144,8 +2005,12 @@
       <c r="M6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1187,8 +2052,12 @@
       <c r="M7">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1230,8 +2099,12 @@
       <c r="M8">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1273,8 +2146,12 @@
       <c r="M9">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1316,8 +2193,12 @@
       <c r="M10">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1359,8 +2240,12 @@
       <c r="M11">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1402,8 +2287,12 @@
       <c r="M12">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1445,8 +2334,12 @@
       <c r="M13">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1488,8 +2381,12 @@
       <c r="M14">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1531,8 +2428,12 @@
       <c r="M15">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1574,8 +2475,12 @@
       <c r="M16">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1617,8 +2522,12 @@
       <c r="M17">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1660,8 +2569,12 @@
       <c r="M18">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1703,8 +2616,12 @@
       <c r="M19">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1746,8 +2663,12 @@
       <c r="M20">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1789,8 +2710,12 @@
       <c r="M21">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1824,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1832,8 +2757,12 @@
       <c r="M22">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1875,8 +2804,12 @@
       <c r="M23">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1918,8 +2851,12 @@
       <c r="M24">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1961,8 +2898,12 @@
       <c r="M25">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2004,8 +2945,12 @@
       <c r="M26">
         <v>104</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2047,8 +2992,12 @@
       <c r="M27">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2090,8 +3039,12 @@
       <c r="M28">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2133,8 +3086,12 @@
       <c r="M29">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2176,8 +3133,12 @@
       <c r="M30">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>internar</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2219,8 +3180,12 @@
       <c r="M31">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2262,8 +3227,12 @@
       <c r="M32">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>atender inmediatamente</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2305,8 +3274,12 @@
       <c r="M33">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2348,8 +3321,12 @@
       <c r="M34">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2390,6 +3367,10 @@
       </c>
       <c r="M35">
         <v>101</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>sala de espera</v>
       </c>
     </row>
   </sheetData>
@@ -2492,11 +3473,206 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36BEA9B-95C2-4E34-ACDB-5A118A10B510}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D2AF9D-6C29-42A2-B5F5-2F9B1BD5EBA3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,25 +3688,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2550,7 +3726,7 @@
         <v>5000</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <f>MATCH(G2,$A$1:$E$1,)</f>
@@ -2574,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="0">MATCH(G3,$A$1:$E$1,)</f>
@@ -2598,7 +3774,7 @@
         <v>4000</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -2622,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -2651,7 +3827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB616C0E-8FC3-40DE-BCA2-AC4258D87B11}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2707,11 +3883,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5FB2F5-93B2-4BDA-B8D9-E01073B9804A}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2732,7 +3908,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
